--- a/biology/Botanique/Syngonanthus_nitens/Syngonanthus_nitens.xlsx
+++ b/biology/Botanique/Syngonanthus_nitens/Syngonanthus_nitens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syngonanthus nitens ou or végétal est une espèce de plantes herbacées de la famille des Ériocaulacées. On la trouve dans la région du Jalapão, État du Tocantins, au Brésil. Sa principale caractéristique est sa couleur dorée qui lui a donné son nom commun en portugais « Capim Dourado », qui signifie « herbe dorée ».
 </t>
@@ -511,11 +523,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Syngonanthus nitens (Bong.) Ruhland[1].
-L'espèce a été initialement classée dans le genre Eriocaulon sous le basionyme Eriocaulon nitens Bong.[1].
-Syngonanthus nitens a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Syngonanthus nitens (Bong.) Ruhland.
+L'espèce a été initialement classée dans le genre Eriocaulon sous le basionyme Eriocaulon nitens Bong..
+Syngonanthus nitens a pour synonymes :
 Dupatya nitens (Bong.) Kuntze
 Eriocaulon filiforme Bong.
 Eriocaulon maximiliani Mart.
